--- a/result/fund_comparison.xlsx
+++ b/result/fund_comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pratyusatripathy/my_work/fund_analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pkt/my_work/fund_analysis/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DE1C2C-FF44-7E40-9623-8799606E58F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BE198D-A6FD-E54A-8E89-7705EBEE68C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="32640" windowHeight="20460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="7" r:id="rId1"/>
@@ -86,9 +86,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
-    <t>Annualized Return</t>
-  </si>
-  <si>
     <t>Performance</t>
   </si>
   <si>
@@ -240,6 +237,9 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>Net Annualized Return</t>
   </si>
 </sst>
 </file>
@@ -469,26 +469,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -553,49 +540,61 @@
     <xf numFmtId="9" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -831,10 +830,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -1035,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F430CA-2259-F04D-9A2C-56C8762A120D}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1049,379 +1044,379 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="34">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="28">
+        <v>9.7581426987159547E-2</v>
+      </c>
+      <c r="D2" s="29">
+        <v>9.43076627739943E-2</v>
+      </c>
+      <c r="E2" s="57" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="34">
+        <v>2</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="30">
+        <v>3.4055935403600468E-2</v>
+      </c>
+      <c r="D3" s="30">
+        <v>2.3542430393590798E-2</v>
+      </c>
+      <c r="E3" s="58"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="34">
+        <v>3</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="31">
+        <v>1.029500611718063</v>
+      </c>
+      <c r="D4" s="31">
+        <v>1.36139506946624</v>
+      </c>
+      <c r="E4" s="58"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="34">
+        <v>4</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="31">
+        <v>3.4055935403600468E-2</v>
+      </c>
+      <c r="D5" s="31">
+        <v>5.5252651675279048E-2</v>
+      </c>
+      <c r="E5" s="58"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="34">
+        <v>5</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="72" t="s">
+      <c r="C6" s="30">
+        <v>6.0193193022921587E-2</v>
+      </c>
+      <c r="D6" s="30">
+        <v>6.2689847497945372E-2</v>
+      </c>
+      <c r="E6" s="58"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="34">
+        <v>6</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="30">
+        <v>3.7581426987159487E-2</v>
+      </c>
+      <c r="D7" s="32">
+        <v>3.16178152760489E-2</v>
+      </c>
+      <c r="E7" s="58"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="34">
+        <v>7</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="30">
+        <v>3.4956593452144483E-2</v>
+      </c>
+      <c r="D8" s="32">
+        <v>2.2778089587434072E-2</v>
+      </c>
+      <c r="E8" s="58"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="34">
+        <v>8</v>
+      </c>
+      <c r="B9" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="C9" s="31">
+        <v>0.99773672050794482</v>
+      </c>
+      <c r="D9" s="33">
+        <v>1.295260766157339</v>
+      </c>
+      <c r="E9" s="59"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="51">
+        <v>8</v>
+      </c>
+      <c r="B10" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="72" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="39">
-        <v>1</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="33">
-        <v>9.7581426987159547E-2</v>
-      </c>
-      <c r="D2" s="34">
-        <v>9.43076627739943E-2</v>
-      </c>
-      <c r="E2" s="55" t="s">
+      <c r="C10" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="65" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="39">
-        <v>2</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="35">
-        <v>3.4055935403600468E-2</v>
-      </c>
-      <c r="D3" s="35">
-        <v>2.3542430393590798E-2</v>
-      </c>
-      <c r="E3" s="65"/>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="39">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="51">
+        <v>9</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="66"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="51">
+        <v>10</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="54">
+        <v>0.91290000000000004</v>
+      </c>
+      <c r="D12" s="55">
+        <v>0.71</v>
+      </c>
+      <c r="E12" s="67"/>
+      <c r="G12" s="50"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="35">
+        <v>11</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="37">
+        <v>0.83606557377049184</v>
+      </c>
+      <c r="D13" s="38">
+        <v>0.8727272727272728</v>
+      </c>
+      <c r="E13" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="50"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="35">
+        <v>12</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="40">
+        <v>-5.2907770213453477E-2</v>
+      </c>
+      <c r="D14" s="41">
+        <v>-6.2098604659723269E-3</v>
+      </c>
+      <c r="E14" s="61"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="35">
+        <v>13</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="42">
+        <v>7</v>
+      </c>
+      <c r="D15" s="43">
         <v>3</v>
       </c>
-      <c r="B4" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="36">
-        <v>1.029500611718063</v>
-      </c>
-      <c r="D4" s="36">
-        <v>1.36139506946624</v>
-      </c>
-      <c r="E4" s="65"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="39">
-        <v>4</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="36">
-        <v>3.4055935403600468E-2</v>
-      </c>
-      <c r="D5" s="36">
-        <v>5.5252651675279048E-2</v>
-      </c>
-      <c r="E5" s="65"/>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="39">
-        <v>5</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="35">
-        <v>6.0193193022921587E-2</v>
-      </c>
-      <c r="D6" s="35">
-        <v>6.2689847497945372E-2</v>
-      </c>
-      <c r="E6" s="65"/>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="39">
-        <v>6</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="35">
-        <v>3.7581426987159487E-2</v>
-      </c>
-      <c r="D7" s="37">
-        <v>3.16178152760489E-2</v>
-      </c>
-      <c r="E7" s="65"/>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="39">
+      <c r="E15" s="61"/>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="35">
+        <v>14</v>
+      </c>
+      <c r="B16" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="35">
-        <v>3.4956593452144483E-2</v>
-      </c>
-      <c r="D8" s="37">
-        <v>2.2778089587434072E-2</v>
-      </c>
-      <c r="E8" s="65"/>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="39">
+      <c r="C16" s="42">
+        <v>2.1428571428571428</v>
+      </c>
+      <c r="D16" s="43">
+        <v>1.6</v>
+      </c>
+      <c r="E16" s="61"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="35">
+        <v>15</v>
+      </c>
+      <c r="B17" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="C17" s="40">
+        <v>-1.4298271866570809E-2</v>
+      </c>
+      <c r="D17" s="41">
+        <v>-1.04240591102187E-2</v>
+      </c>
+      <c r="E17" s="61"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="35">
+        <v>16</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="40">
+        <v>-5.6405774149198319E-2</v>
+      </c>
+      <c r="D18" s="41">
+        <v>-1.554708049882798E-2</v>
+      </c>
+      <c r="E18" s="62"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="44">
+        <v>17</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="46">
+        <v>0.02</v>
+      </c>
+      <c r="D19" s="49">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="E19" s="63" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="44">
         <v>18</v>
       </c>
-      <c r="C9" s="36">
-        <v>0.99773672050794482</v>
-      </c>
-      <c r="D9" s="38">
-        <v>1.295260766157339</v>
-      </c>
-      <c r="E9" s="66"/>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="59">
-        <v>8</v>
-      </c>
-      <c r="B10" s="60" t="s">
+      <c r="B20" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="47">
+        <v>0.2</v>
+      </c>
+      <c r="D20" s="46">
+        <v>0.2</v>
+      </c>
+      <c r="E20" s="64"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="44">
+        <v>19</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="48">
+        <v>1.2654516867125546E-3</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="45"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="44">
+        <v>20</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="49">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="D22" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="45"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="44">
+        <v>21</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="44">
+        <v>22</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="61" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="59">
-        <v>9</v>
-      </c>
-      <c r="B11" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="67"/>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="59">
-        <v>10</v>
-      </c>
-      <c r="B12" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="63">
-        <v>0.91290000000000004</v>
-      </c>
-      <c r="D12" s="64">
-        <v>0.71</v>
-      </c>
-      <c r="E12" s="68"/>
-      <c r="G12" s="58"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="40">
-        <v>11</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="42">
-        <v>0.83606557377049184</v>
-      </c>
-      <c r="D13" s="43">
-        <v>0.8727272727272728</v>
-      </c>
-      <c r="E13" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="58"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="40">
-        <v>12</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="45">
-        <v>-5.2907770213453477E-2</v>
-      </c>
-      <c r="D14" s="46">
-        <v>-6.2098604659723269E-3</v>
-      </c>
-      <c r="E14" s="69"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="40">
-        <v>13</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="47">
-        <v>7</v>
-      </c>
-      <c r="D15" s="48">
-        <v>3</v>
-      </c>
-      <c r="E15" s="69"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="40">
-        <v>14</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="47">
-        <v>2.1428571428571428</v>
-      </c>
-      <c r="D16" s="48">
-        <v>1.6</v>
-      </c>
-      <c r="E16" s="69"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="40">
-        <v>15</v>
-      </c>
-      <c r="B17" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="45">
-        <v>-1.4298271866570809E-2</v>
-      </c>
-      <c r="D17" s="46">
-        <v>-1.04240591102187E-2</v>
-      </c>
-      <c r="E17" s="69"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="40">
-        <v>16</v>
-      </c>
-      <c r="B18" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="45">
-        <v>-5.6405774149198319E-2</v>
-      </c>
-      <c r="D18" s="46">
-        <v>-1.554708049882798E-2</v>
-      </c>
-      <c r="E18" s="70"/>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="49">
-        <v>17</v>
-      </c>
-      <c r="B19" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="51">
-        <v>0.02</v>
-      </c>
-      <c r="D19" s="54">
-        <v>1.4800000000000001E-2</v>
-      </c>
-      <c r="E19" s="57" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="49">
-        <v>18</v>
-      </c>
-      <c r="B20" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="52">
-        <v>0.2</v>
-      </c>
-      <c r="D20" s="51">
-        <v>0.2</v>
-      </c>
-      <c r="E20" s="71"/>
-    </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="49">
-        <v>19</v>
-      </c>
-      <c r="B21" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="53">
-        <v>1.2654516867125546E-3</v>
-      </c>
-      <c r="D21" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="50"/>
-    </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="49">
-        <v>20</v>
-      </c>
-      <c r="B22" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="54">
-        <v>0.84799999999999998</v>
-      </c>
-      <c r="D22" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="50"/>
-    </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="49">
-        <v>21</v>
-      </c>
-      <c r="B23" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="50" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="49">
-        <v>22</v>
-      </c>
-      <c r="B24" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="50" t="s">
+      <c r="D24" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="50"/>
+      <c r="E24" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1439,268 +1434,267 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75191115-FDB3-644E-8521-9C22A3B48244}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="B1" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="19" t="s">
         <v>41</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="10">
+        <v>29</v>
+      </c>
+      <c r="B3" s="5">
         <v>6.5199999999999994E-2</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="12">
         <v>0.13400000000000001</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="24">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="8">
         <v>0.17245714285714289</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="16">
         <v>0.15015529411764711</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="20">
         <v>7.8600000000000003E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="10">
+        <v>30</v>
+      </c>
+      <c r="B4" s="5">
         <v>5.04E-2</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="12">
         <v>0.114</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="24">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="8">
         <v>0.13941999999999999</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="16">
         <v>0.11135490196078431</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="20">
         <v>4.6986866666666668E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="10">
+        <v>31</v>
+      </c>
+      <c r="B5" s="5">
         <v>6.3500000000000001E-2</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="12">
         <v>6.2399999999999997E-2</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="24">
         <v>5.8400000000000001E-2</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="8">
         <v>3.8219784550570193E-2</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="16">
         <v>6.6665889228567879E-2</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="20">
         <v>5.2001959139965047E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="10">
+        <v>32</v>
+      </c>
+      <c r="B6" s="5">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="12">
         <v>7.1599999999999997E-2</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="24">
         <v>1.26E-2</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="8">
         <v>0.13423735830657271</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="16">
         <v>8.3489404889079202E-2</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="20">
         <v>2.659804086003496E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="10">
+        <v>33</v>
+      </c>
+      <c r="B7" s="5">
         <v>-1.3100000000000001E-2</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="12">
         <v>5.16E-2</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="24">
         <v>-5.7999999999999996E-3</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="8">
         <v>0.1012002154494298</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="16">
         <v>4.468901273221644E-2</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="20">
         <v>-5.0150924732983802E-3</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="17">
+        <v>34</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="12">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="24">
         <v>1.8700000000000001E-2</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="8">
         <v>2.4251774603698008E-2</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="16">
         <v>2.3713869404612939E-2</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="20">
         <v>4.7655672882614263E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="17">
+        <v>35</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="12">
         <v>2.4E-2</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="24">
         <v>1.89E-2</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="8">
         <v>2.29273679256909E-2</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="16">
         <v>2.3971594320972862E-2</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="20">
         <v>4.6866159834427663E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="18">
+        <v>36</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="13">
         <v>3.02</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="25">
         <v>0.67</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="9">
         <v>4.7026058066544962</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="17">
         <v>3.8688197935206579</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="21">
         <v>0.42365141429466452</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="18">
+        <v>37</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="13">
         <v>2.31</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="25">
         <v>-0.31</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="9">
         <v>3.5333054137936881</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="17">
         <v>2.2086263628425629</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="21">
         <v>-0.24375242515726861</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="11">
+        <v>38</v>
+      </c>
+      <c r="B12" s="6">
         <v>1</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="14">
         <v>34</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="26">
         <v>20</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="10">
         <v>7</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="18">
         <v>34</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="22">
         <v>20</v>
       </c>
     </row>
